--- a/biology/Botanique/Rumex_bucephalophorus/Rumex_bucephalophorus.xlsx
+++ b/biology/Botanique/Rumex_bucephalophorus/Rumex_bucephalophorus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rumex bucephalophorus est une espèce de plantes herbacée de la famille des Polygonacées.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Tropicos                                           (21 juillet 2022)[2] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (21 juillet 2022) (Attention liste brute contenant possiblement des synonymes) :
 Rumex bucephalophorus subsp. aegaeus Rchb. f.
 Rumex bucephalophorus subsp. bucephalophorus
 Rumex bucephalophorus subsp. canariensis (Steinh.) Rech. f.
@@ -563,9 +577,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La floraison a lieu de mars à septembre[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu de mars à septembre.
 </t>
         </is>
       </c>
@@ -594,9 +610,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente dans tout le bassin méditerranéen[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente dans tout le bassin méditerranéen.
 </t>
         </is>
       </c>
